--- a/imageCreationExcel/back/114/114_10.xlsx
+++ b/imageCreationExcel/back/114/114_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.16220885719093</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8883452254546353</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.01896341552498936</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_0_brightness27.162_gamma0.888_sharpness0.019.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.036724717844507</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.05235187352069</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5670405443700461</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_brightness3.037_contrast1.052_gamma0.567.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.003697227887677</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7557683566937827</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>29.06451706189241</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_1_gamma1.004_sharpness0.756_equalization29.065.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -617,34 +617,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.193139380534928</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9870704394896085</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.924069685365984</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_2_contrast1.193_sharpness0.987_equalization8.924.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.197874394512162</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6976252730862358</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.77827495806052</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_I_contrast1.198_sharpness0.698_equalization10.778.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.56558304505415</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9234113356257129</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.01958347472202881</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_brightness17.566_contrast0.923_sharpness0.02.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.42260793021438</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8820330397898015</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.1906320647637145</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_brightness19.423_contrast0.882_sharpness0.191.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.308225936158366</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.133459241927546</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.932111901834182</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_brightness4.308_contrast1.133_gamma0.932.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.420329069524017</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8151715220146414</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.902090188399447</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_P_brightness3.42_contrast0.815_gamma0.902.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.144452868717207</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8883817399527612</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21.68472904105364</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_0_contrast1.144_sharpness0.888_equalization21.685.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.086298952415559</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.239927143143751</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>11.94301276872403</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_contrast1.086_sharpness0.24_equalization11.943.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -953,34 +953,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6614234616092343</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.3446237483902211</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>29.84908423021702</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_gamma0.661_sharpness0.345_equalization29.849.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.129803992048684</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7440236856590163</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.812864435464053</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_contrast1.13_gamma0.744_sharpness0.813.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8300325149696637</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.991685504204772</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.490785077682437</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_contrast0.83_gamma0.992_sharpness0.491.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21.34312516154849</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7864226177309704</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.3331431088483853</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_B_brightness21.343_gamma0.786_sharpness0.333.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1121,34 +1121,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9587271380627403</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5412729486219449</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7.845190693144986</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_gamma0.959_sharpness0.541_equalization7.845.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8806729752440687</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5875017659604203</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16.70520973322623</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast0.881_sharpness0.588_equalization16.705.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.819836484965124</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9292070179996279</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.905138616420833</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_9_brightness3.82_contrast0.929_gamma0.905.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,24 +1242,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9649070490293471</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9141637391900794</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.4834721091146917</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_contrast0.965_gamma0.914_sharpness0.483.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.028590314549872</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9328205331030011</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4092797110011756</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_0_contrast1.029_gamma0.933_sharpness0.409.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,15 +1335,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9486902847246831</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.06068220331478229</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>31.06958916899156</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_contrast0.949_sharpness0.061_equalization31.07.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,15 +1377,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1206863269171787</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9076881582173744</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.4263006185641058</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_brightness0.121_contrast0.908_sharpness0.426.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.501958782172301</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8746302200883516</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.030354682814397</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_I_brightness2.502_contrast0.875_gamma1.03.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.61719924898537</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8692988450586195</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.052401542851523</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_0_brightness4.617_contrast0.869_gamma1.052.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12.060763577145</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8220534779376032</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.2685325311934866</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_brightness12.061_contrast0.822_sharpness0.269.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.509645877115815</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.077548670365216</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.00516044054203</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_2_brightness2.51_contrast1.078_gamma1.005.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19.03590169470938</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8890966735050058</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.6414681610883194</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_brightness19.036_contrast0.889_gamma0.641.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8114183423000862</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.4557919941500599</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12.25362209510121</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_contrast0.811_sharpness0.456_equalization12.254.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18.58948750810184</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9304094700629516</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7502802842650812</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_9_brightness18.589_contrast0.93_gamma0.75.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.110070292071226</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.002962151804222506</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>11.44939221919147</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_3_contrast1.11_sharpness0.003_equalization11.449.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,30 +1755,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8790831267427225</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.6086965230865284</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4136189559262776</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_contrast0.879_gamma0.609_sharpness0.414.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6.073925203385919</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.12256304240745</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.9749912235389973</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_C_brightness6.074_contrast1.123_sharpness0.975.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.005673817034014</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.7738114882724044</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>25.10852041287001</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_I_contrast1.006_gamma0.774_equalization25.109.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16.79631441186339</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8645889813793669</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.5200992462984879</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_2_brightness16.796_contrast0.865_gamma0.52.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>23.9876524373624</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8827461838070592</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.1920290603391576</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_I_brightness23.988_gamma0.883_sharpness0.192.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.862612497493796</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8076302217253513</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.4807622996301048</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_0_brightness4.863_contrast0.808_sharpness0.481.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,15 +2007,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.192188897606025</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6136053910869281</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>29.44078723370729</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_contrast1.192_sharpness0.614_equalization29.441.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9310663646493755</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.111805233620567</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>31.10121676393798</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_P_contrast0.931_sharpness0.112_equalization31.101.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2091,15 +2091,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9725166641149704</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9054424188263589</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>25.45336507574184</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_E_contrast0.973_gamma0.905_equalization25.453.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.089986018837305</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.70591855356735</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>31.86683389063991</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_gamma1.09_sharpness0.706_equalization31.867.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19.74072329176165</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.075266650620392</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.6127514014643782</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_brightness19.741_contrast1.075_sharpness0.613.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.446731590536617</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8361418228926816</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.4031928176276677</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_brightness2.447_contrast0.836_sharpness0.403.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9400693006744806</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.3953281310156244</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9.324743765922531</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_gamma0.94_sharpness0.395_equalization9.325.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9834176290121318</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9211062710564558</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.7080259336970036</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_3_contrast0.983_gamma0.921_sharpness0.708.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2343,15 +2343,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9056606204323032</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.421527516237964</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.779782539016908</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_3_contrast0.906_sharpness0.422_equalization4.78.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5627856115342638</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.4981851237579566</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>27.77552672609404</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_gamma0.563_sharpness0.498_equalization27.776.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9737465038913815</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.3491850314353213</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>13.24255130749272</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_I_gamma0.974_sharpness0.349_equalization13.243.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.046454552569395</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.096834785123274</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.831889481980935</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_9_contrast1.046_gamma1.097_sharpness0.832.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
